--- a/ig/ch-rad-order/StructureDefinition-ch-rad-order-servicerequest.xlsx
+++ b/ig/ch-rad-order/StructureDefinition-ch-rad-order-servicerequest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T11:27:24+00:00</t>
+    <t>2024-12-18T10:05:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -538,7 +538,7 @@
     <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -968,7 +968,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>The status of a service order.</t>
@@ -1121,7 +1121,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](valueset-diagnostic-requests.html).</t>
+    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](http://hl7.org/fhir/R4/valueset-diagnostic-requests.html).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
@@ -1622,7 +1622,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
@@ -1668,7 +1668,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>

--- a/ig/ch-rad-order/StructureDefinition-ch-rad-order-servicerequest.xlsx
+++ b/ig/ch-rad-order/StructureDefinition-ch-rad-order-servicerequest.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$118</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3477" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="641">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T10:05:02+00:00</t>
+    <t>2025-12-17T07:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -378,7 +378,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -677,7 +677,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -774,7 +774,7 @@
     <t>ServiceRequest.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -842,7 +842,7 @@
     <t>ServiceRequest.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition)
+    <t xml:space="preserve">canonical(ActivityDefinition|4.0.1|PlanDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -912,7 +912,7 @@
 priorrenewed order</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1121,10 +1121,10 @@
     <t>example</t>
   </si>
   <si>
-    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](http://hl7.org/fhir/R4/valueset-diagnostic-requests.html).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
+    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred].</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-code|4.0.1</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1237,7 +1237,7 @@
     <t>Codified order entry details which are based on order context.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">prr-1
@@ -1284,6 +1284,21 @@
     <t>http://fhir.ch/ig/ch-rad-order/ValueSet/ch-rad-order-imaging-region</t>
   </si>
   <si>
+    <t>ServiceRequest.orderDetail:imagingRegion.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail:imagingRegion.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail:imagingRegion.extension:orderDetailType</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail:imagingRegion.coding</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail:imagingRegion.text</t>
+  </si>
+  <si>
     <t>ServiceRequest.orderDetail:laterality</t>
   </si>
   <si>
@@ -1293,6 +1308,21 @@
     <t>http://fhir.ch/ig/ch-rad-order/ValueSet/ch-rad-order-laterality</t>
   </si>
   <si>
+    <t>ServiceRequest.orderDetail:laterality.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail:laterality.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail:laterality.extension:orderDetailType</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail:laterality.coding</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail:laterality.text</t>
+  </si>
+  <si>
     <t>ServiceRequest.orderDetail:viewType</t>
   </si>
   <si>
@@ -1302,6 +1332,21 @@
     <t>http://fhir.ch/ig/ch-rad-order/ValueSet/ch-rad-order-view-type</t>
   </si>
   <si>
+    <t>ServiceRequest.orderDetail:viewType.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail:viewType.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail:viewType.extension:orderDetailType</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail:viewType.coding</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail:viewType.text</t>
+  </si>
+  <si>
     <t>ServiceRequest.orderDetail:maneuverType</t>
   </si>
   <si>
@@ -1311,6 +1356,21 @@
     <t>http://fhir.ch/ig/ch-rad-order/ValueSet/ch-rad-order-maneuver-type</t>
   </si>
   <si>
+    <t>ServiceRequest.orderDetail:maneuverType.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail:maneuverType.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail:maneuverType.extension:orderDetailType</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail:maneuverType.coding</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail:maneuverType.text</t>
+  </si>
+  <si>
     <t>ServiceRequest.orderDetail:guidanceForAction</t>
   </si>
   <si>
@@ -1318,6 +1378,21 @@
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-rad-order/ValueSet/ch-rad-order-guidance-for-action</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail:guidanceForAction.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail:guidanceForAction.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail:guidanceForAction.extension:orderDetailType</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail:guidanceForAction.coding</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail:guidanceForAction.text</t>
   </si>
   <si>
     <t>ServiceRequest.quantity[x]</t>
@@ -1447,7 +1522,7 @@
     <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason|4.0.1</t>
   </si>
   <si>
     <t>boolean: precondition.negationInd (inversed - so negationInd = true means asNeeded=false CodeableConcept: precondition.observationEventCriterion[code="Assertion"].value</t>
@@ -1542,7 +1617,7 @@
     <t>Indicates specific responsibility of an individual within the care team, such as "Primary physician", "Team coordinator", "Caregiver", etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
+    <t>http://hl7.org/fhir/ValueSet/participant-role|4.0.1</t>
   </si>
   <si>
     <t>Request.performerType</t>
@@ -1603,7 +1678,7 @@
     <t>ServiceRequest.locationReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1628,7 +1703,7 @@
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-reason|4.0.1</t>
   </si>
   <si>
     <t>Request.reasonCode</t>
@@ -1709,7 +1784,7 @@
 AOE</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1790,7 +1865,7 @@
     <t>ServiceRequest.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1865,7 +1940,7 @@
     <t>ServiceRequest.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+    <t>Reference(Practitioner|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
 string</t>
   </si>
   <si>
@@ -1933,7 +2008,7 @@
     <t>ServiceRequest.relevantHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Provenance)
+    <t xml:space="preserve">Reference(Provenance|4.0.1)
 </t>
   </si>
   <si>
@@ -2273,7 +2348,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO93"/>
+  <dimension ref="A1:AO118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2282,17 +2357,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.07421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.2265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.35546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="37.7265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="146.8203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="125.87109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2301,27 +2376,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="160.17578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="85.41796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="163.4453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="66.88671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="73.23046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="140.125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="57.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3377,7 +3452,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>142</v>
       </c>
@@ -3494,7 +3569,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>148</v>
       </c>
@@ -3845,7 +3920,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>171</v>
       </c>
@@ -4434,7 +4509,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>211</v>
       </c>
@@ -4553,7 +4628,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>221</v>
       </c>
@@ -4902,7 +4977,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>247</v>
       </c>
@@ -5491,7 +5566,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>255</v>
       </c>
@@ -5610,7 +5685,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>256</v>
       </c>
@@ -6542,7 +6617,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>297</v>
       </c>
@@ -6659,7 +6734,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>308</v>
       </c>
@@ -6776,7 +6851,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>317</v>
       </c>
@@ -6893,7 +6968,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>325</v>
       </c>
@@ -7131,7 +7206,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>344</v>
       </c>
@@ -7597,7 +7672,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>368</v>
       </c>
@@ -7716,7 +7791,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>371</v>
       </c>
@@ -8299,7 +8374,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>393</v>
       </c>
@@ -8654,7 +8729,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>400</v>
       </c>
@@ -8776,13 +8851,11 @@
         <v>403</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>383</v>
+        <v>82</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8792,26 +8865,24 @@
         <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>384</v>
+        <v>178</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -8836,11 +8907,13 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="Y56" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z56" t="s" s="2">
-        <v>405</v>
+        <v>82</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -8858,77 +8931,73 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>382</v>
+        <v>180</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>389</v>
+        <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>390</v>
+        <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>354</v>
+        <v>181</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>356</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>383</v>
+        <v>82</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>384</v>
+        <v>136</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -8953,29 +9022,31 @@
         <v>82</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="Y57" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z57" t="s" s="2">
-        <v>408</v>
+        <v>82</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>382</v>
+        <v>187</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8984,46 +9055,46 @@
         <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>389</v>
+        <v>82</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>390</v>
+        <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>354</v>
+        <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>356</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>383</v>
+        <v>82</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>91</v>
@@ -9032,20 +9103,18 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>201</v>
+        <v>395</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9070,11 +9139,13 @@
         <v>82</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="Y58" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z58" t="s" s="2">
-        <v>411</v>
+        <v>82</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>82</v>
@@ -9092,7 +9163,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>382</v>
+        <v>187</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9101,39 +9172,37 @@
         <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>389</v>
+        <v>82</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>390</v>
+        <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>354</v>
+        <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>356</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>383</v>
+        <v>82</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9143,7 +9212,7 @@
         <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>82</v>
@@ -9152,18 +9221,20 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>201</v>
+        <v>360</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9187,11 +9258,13 @@
         <v>82</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="Y59" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z59" t="s" s="2">
-        <v>414</v>
+        <v>82</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>82</v>
@@ -9209,7 +9282,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9218,7 +9291,7 @@
         <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>389</v>
+        <v>82</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>102</v>
@@ -9227,24 +9300,24 @@
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>356</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9267,17 +9340,19 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>416</v>
+        <v>177</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O60" t="s" s="2">
-        <v>419</v>
+        <v>378</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9326,7 +9401,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9344,10 +9419,10 @@
         <v>82</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>420</v>
+        <v>381</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>82</v>
@@ -9356,20 +9431,22 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="D61" t="s" s="2">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>90</v>
@@ -9384,15 +9461,17 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>422</v>
+        <v>201</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9417,13 +9496,11 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>82</v>
+        <v>410</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9441,46 +9518,46 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>421</v>
+        <v>382</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>82</v>
+        <v>389</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>425</v>
+        <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>427</v>
+        <v>354</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>428</v>
+        <v>82</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>429</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>431</v>
+        <v>82</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9496,16 +9573,16 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>432</v>
+        <v>177</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>433</v>
+        <v>178</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>434</v>
+        <v>179</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9556,7 +9633,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>430</v>
+        <v>180</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9568,41 +9645,41 @@
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>435</v>
+        <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>436</v>
+        <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>437</v>
+        <v>181</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>438</v>
+        <v>82</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>439</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>441</v>
+        <v>82</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>82</v>
@@ -9611,16 +9688,16 @@
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>442</v>
+        <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>443</v>
+        <v>136</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>444</v>
+        <v>137</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9659,83 +9736,85 @@
         <v>82</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>440</v>
+        <v>187</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>445</v>
+        <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>446</v>
+        <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>448</v>
+        <v>82</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>449</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>450</v>
+        <v>413</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="D64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>451</v>
+        <v>395</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>452</v>
+        <v>396</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>453</v>
+        <v>397</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9762,13 +9841,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>349</v>
+        <v>82</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>454</v>
+        <v>82</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>455</v>
+        <v>82</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -9786,19 +9865,19 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>450</v>
+        <v>187</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>82</v>
@@ -9807,32 +9886,32 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>456</v>
+        <v>82</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>457</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>458</v>
+        <v>398</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>459</v>
+        <v>82</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>82</v>
@@ -9844,16 +9923,20 @@
         <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>461</v>
+        <v>361</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
       </c>
@@ -9901,13 +9984,13 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>458</v>
+        <v>365</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>82</v>
@@ -9916,31 +9999,31 @@
         <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>463</v>
+        <v>82</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>464</v>
+        <v>366</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>465</v>
+        <v>367</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>466</v>
+        <v>82</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>467</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>468</v>
+        <v>415</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>468</v>
+        <v>399</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>469</v>
+        <v>82</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9950,7 +10033,7 @@
         <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>82</v>
@@ -9959,18 +10042,20 @@
         <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>470</v>
+        <v>177</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>471</v>
+        <v>375</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>472</v>
+        <v>376</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
       </c>
@@ -10018,7 +10103,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>468</v>
+        <v>379</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10033,41 +10118,43 @@
         <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>474</v>
+        <v>82</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>475</v>
+        <v>380</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>476</v>
+        <v>381</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>477</v>
+        <v>82</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>478</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>479</v>
+        <v>416</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="D67" t="s" s="2">
-        <v>480</v>
+        <v>383</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>82</v>
@@ -10079,13 +10166,13 @@
         <v>201</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>481</v>
+        <v>384</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>482</v>
+        <v>385</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>483</v>
+        <v>386</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10111,13 +10198,11 @@
         <v>82</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>485</v>
+        <v>418</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>82</v>
@@ -10135,46 +10220,46 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>479</v>
+        <v>382</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>82</v>
+        <v>389</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>486</v>
+        <v>82</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>487</v>
+        <v>390</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>488</v>
+        <v>354</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>489</v>
+        <v>82</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>490</v>
+        <v>419</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>490</v>
+        <v>391</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>491</v>
+        <v>82</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10184,26 +10269,24 @@
         <v>90</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>470</v>
+        <v>177</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>492</v>
+        <v>178</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10252,31 +10335,31 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>490</v>
+        <v>180</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>495</v>
+        <v>82</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>496</v>
+        <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>497</v>
+        <v>181</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>489</v>
+        <v>82</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10284,10 +10367,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>498</v>
+        <v>420</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>498</v>
+        <v>392</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10295,7 +10378,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>81</v>
@@ -10307,16 +10390,16 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>499</v>
+        <v>136</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>500</v>
+        <v>137</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10343,31 +10426,31 @@
         <v>82</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>349</v>
+        <v>82</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>501</v>
+        <v>82</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>502</v>
+        <v>82</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>498</v>
+        <v>187</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10379,7 +10462,7 @@
         <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -10388,50 +10471,52 @@
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>503</v>
+        <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>489</v>
+        <v>82</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>504</v>
+        <v>421</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="D70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>505</v>
+        <v>395</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>499</v>
+        <v>396</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>506</v>
+        <v>397</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10482,7 +10567,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>504</v>
+        <v>187</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10494,7 +10579,7 @@
         <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>82</v>
@@ -10503,10 +10588,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>507</v>
+        <v>82</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>489</v>
+        <v>82</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10514,10 +10599,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>508</v>
+        <v>422</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>508</v>
+        <v>398</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10531,7 +10616,7 @@
         <v>81</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>82</v>
@@ -10540,18 +10625,20 @@
         <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>201</v>
+        <v>360</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>509</v>
+        <v>361</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>510</v>
+        <v>362</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
       </c>
@@ -10575,13 +10662,13 @@
         <v>82</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>349</v>
+        <v>82</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>512</v>
+        <v>82</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>513</v>
+        <v>82</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
@@ -10599,7 +10686,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>508</v>
+        <v>365</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10614,16 +10701,16 @@
         <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>514</v>
+        <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>515</v>
+        <v>366</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>516</v>
+        <v>367</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>517</v>
+        <v>82</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10631,10 +10718,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>518</v>
+        <v>423</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>518</v>
+        <v>399</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10654,19 +10741,23 @@
         <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>177</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>178</v>
+        <v>375</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
@@ -10714,7 +10805,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>180</v>
+        <v>379</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10726,16 +10817,16 @@
         <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>82</v>
+        <v>380</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>181</v>
+        <v>381</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
@@ -10744,16 +10835,18 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="D73" t="s" s="2">
-        <v>154</v>
+        <v>383</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10763,25 +10856,25 @@
         <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>184</v>
+        <v>384</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>185</v>
+        <v>385</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>157</v>
+        <v>386</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10807,31 +10900,29 @@
         <v>82</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>187</v>
+        <v>382</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10840,33 +10931,33 @@
         <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>82</v>
+        <v>389</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>82</v>
+        <v>390</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>181</v>
+        <v>354</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>520</v>
+        <v>427</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>520</v>
+        <v>391</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10877,7 +10968,7 @@
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>82</v>
@@ -10886,23 +10977,19 @@
         <v>82</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>360</v>
+        <v>177</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>361</v>
+        <v>178</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>82</v>
       </c>
@@ -10950,28 +11037,28 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>365</v>
+        <v>180</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>366</v>
+        <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>367</v>
+        <v>181</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>82</v>
@@ -10982,10 +11069,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>521</v>
+        <v>428</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>521</v>
+        <v>392</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10996,32 +11083,28 @@
         <v>90</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>375</v>
+        <v>136</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>82</v>
       </c>
@@ -11057,40 +11140,40 @@
         <v>82</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>379</v>
+        <v>187</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>380</v>
+        <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
@@ -11099,23 +11182,25 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>522</v>
+        <v>429</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="D76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>91</v>
@@ -11124,20 +11209,18 @@
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>523</v>
+        <v>395</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>524</v>
+        <v>396</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11186,7 +11269,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>522</v>
+        <v>187</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11198,19 +11281,19 @@
         <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>527</v>
+        <v>82</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>528</v>
+        <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>529</v>
+        <v>82</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>517</v>
+        <v>82</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
@@ -11218,10 +11301,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>530</v>
+        <v>430</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>530</v>
+        <v>398</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11235,25 +11318,29 @@
         <v>81</v>
       </c>
       <c r="H77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J77" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K77" t="s" s="2">
-        <v>531</v>
+        <v>360</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>532</v>
+        <v>361</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
       </c>
@@ -11301,7 +11388,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>530</v>
+        <v>365</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11316,13 +11403,13 @@
         <v>102</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>534</v>
+        <v>82</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>535</v>
+        <v>366</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>536</v>
+        <v>367</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>82</v>
@@ -11333,44 +11420,46 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>537</v>
+        <v>431</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>537</v>
+        <v>399</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>538</v>
+        <v>82</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J78" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K78" t="s" s="2">
-        <v>539</v>
+        <v>177</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>541</v>
+        <v>376</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
       </c>
@@ -11406,23 +11495,25 @@
         <v>82</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AC78" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>537</v>
+        <v>379</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>82</v>
@@ -11431,13 +11522,13 @@
         <v>102</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>544</v>
+        <v>82</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>545</v>
+        <v>380</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>546</v>
+        <v>381</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>82</v>
@@ -11446,25 +11537,25 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>547</v>
+        <v>432</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>537</v>
+        <v>382</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>548</v>
+        <v>433</v>
       </c>
       <c r="D79" t="s" s="2">
-        <v>538</v>
+        <v>383</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>91</v>
@@ -11473,19 +11564,19 @@
         <v>82</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>549</v>
+        <v>201</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>540</v>
+        <v>384</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>541</v>
+        <v>385</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>542</v>
+        <v>386</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11511,13 +11602,11 @@
         <v>82</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="Y79" s="2"/>
       <c r="Z79" t="s" s="2">
-        <v>82</v>
+        <v>434</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -11535,7 +11624,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>537</v>
+        <v>382</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11544,39 +11633,37 @@
         <v>81</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>82</v>
+        <v>389</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>544</v>
+        <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>545</v>
+        <v>390</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>546</v>
+        <v>354</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>550</v>
+        <v>435</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>551</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>538</v>
+        <v>82</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11586,7 +11673,7 @@
         <v>90</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>82</v>
@@ -11595,17 +11682,15 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>552</v>
+        <v>177</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>540</v>
+        <v>178</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -11654,28 +11739,28 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>537</v>
+        <v>180</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>544</v>
+        <v>82</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>545</v>
+        <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>546</v>
+        <v>181</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>82</v>
@@ -11686,26 +11771,24 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>553</v>
+        <v>436</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>554</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>538</v>
+        <v>82</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>82</v>
@@ -11714,17 +11797,15 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>523</v>
+        <v>135</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>555</v>
+        <v>136</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -11761,19 +11842,19 @@
         <v>82</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>537</v>
+        <v>187</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11785,16 +11866,16 @@
         <v>82</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>544</v>
+        <v>82</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>545</v>
+        <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>546</v>
+        <v>82</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>82</v>
@@ -11803,25 +11884,25 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>556</v>
+        <v>437</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>537</v>
+        <v>392</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>557</v>
+        <v>394</v>
       </c>
       <c r="D82" t="s" s="2">
-        <v>538</v>
+        <v>82</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>91</v>
@@ -11833,17 +11914,15 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>558</v>
+        <v>395</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>540</v>
+        <v>396</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -11892,7 +11971,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>537</v>
+        <v>187</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11904,16 +11983,16 @@
         <v>82</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>544</v>
+        <v>82</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>545</v>
+        <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>546</v>
+        <v>82</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>82</v>
@@ -11924,16 +12003,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>559</v>
+        <v>438</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>560</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>538</v>
+        <v>82</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11943,27 +12020,29 @@
         <v>81</v>
       </c>
       <c r="H83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J83" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K83" t="s" s="2">
-        <v>561</v>
+        <v>360</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>562</v>
+        <v>361</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>541</v>
+        <v>362</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
       </c>
@@ -12011,7 +12090,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>537</v>
+        <v>365</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12026,13 +12105,13 @@
         <v>102</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>544</v>
+        <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>545</v>
+        <v>366</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>546</v>
+        <v>367</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>82</v>
@@ -12043,10 +12122,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>563</v>
+        <v>439</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>563</v>
+        <v>399</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12057,7 +12136,7 @@
         <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>82</v>
@@ -12069,18 +12148,20 @@
         <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>564</v>
+        <v>177</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>565</v>
+        <v>375</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>566</v>
+        <v>376</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
@@ -12128,13 +12209,13 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>563</v>
+        <v>379</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>82</v>
@@ -12146,10 +12227,10 @@
         <v>82</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>568</v>
+        <v>380</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>569</v>
+        <v>381</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>82</v>
@@ -12160,24 +12241,24 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>570</v>
+        <v>440</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>570</v>
+        <v>440</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>571</v>
+        <v>82</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>82</v>
@@ -12186,19 +12267,17 @@
         <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>201</v>
+        <v>441</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>572</v>
+        <v>442</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>574</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>575</v>
+        <v>444</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12223,11 +12302,13 @@
         <v>82</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="Y85" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z85" t="s" s="2">
-        <v>576</v>
+        <v>82</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>82</v>
@@ -12245,13 +12326,13 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>570</v>
+        <v>440</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>82</v>
@@ -12263,24 +12344,24 @@
         <v>82</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>568</v>
+        <v>390</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>577</v>
+        <v>445</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>578</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>579</v>
+        <v>446</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>579</v>
+        <v>446</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12288,10 +12369,10 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>91</v>
@@ -12300,16 +12381,16 @@
         <v>82</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>580</v>
+        <v>447</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>51</v>
+        <v>448</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>581</v>
+        <v>449</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12360,13 +12441,13 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>579</v>
+        <v>446</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>82</v>
@@ -12375,31 +12456,31 @@
         <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>582</v>
+        <v>450</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>390</v>
+        <v>451</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>583</v>
+        <v>452</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>82</v>
+        <v>453</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>584</v>
+        <v>454</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>585</v>
+        <v>455</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>585</v>
+        <v>455</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>82</v>
+        <v>456</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12415,16 +12496,16 @@
         <v>82</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>177</v>
+        <v>457</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>178</v>
+        <v>458</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>179</v>
+        <v>459</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12475,7 +12556,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>180</v>
+        <v>455</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12487,41 +12568,41 @@
         <v>82</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>82</v>
+        <v>460</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>82</v>
+        <v>461</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>181</v>
+        <v>462</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>82</v>
+        <v>463</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>82</v>
+        <v>464</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>586</v>
+        <v>465</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>586</v>
+        <v>465</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>154</v>
+        <v>466</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>82</v>
@@ -12530,20 +12611,18 @@
         <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>135</v>
+        <v>467</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>184</v>
+        <v>468</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -12580,54 +12659,54 @@
         <v>82</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>187</v>
+        <v>465</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>82</v>
+        <v>470</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>82</v>
+        <v>471</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>181</v>
+        <v>472</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>82</v>
+        <v>473</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>82</v>
+        <v>474</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>587</v>
+        <v>475</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>587</v>
+        <v>475</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12650,17 +12729,15 @@
         <v>91</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>588</v>
+        <v>476</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>589</v>
+        <v>477</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>591</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -12685,13 +12762,13 @@
         <v>82</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>82</v>
+        <v>349</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>82</v>
+        <v>479</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>82</v>
+        <v>480</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>82</v>
@@ -12709,7 +12786,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>592</v>
+        <v>475</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12727,28 +12804,28 @@
         <v>82</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>593</v>
+        <v>481</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>82</v>
+        <v>482</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>594</v>
+        <v>483</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>594</v>
+        <v>483</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>82</v>
+        <v>484</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12767,13 +12844,13 @@
         <v>91</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>595</v>
+        <v>486</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>596</v>
+        <v>487</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12824,7 +12901,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>597</v>
+        <v>483</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -12839,35 +12916,35 @@
         <v>102</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>82</v>
+        <v>488</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>133</v>
+        <v>489</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>598</v>
+        <v>490</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>82</v>
+        <v>491</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>82</v>
+        <v>492</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
-        <v>599</v>
+        <v>493</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>599</v>
+        <v>493</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>82</v>
+        <v>494</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>90</v>
@@ -12882,15 +12959,17 @@
         <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>600</v>
+        <v>495</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>601</v>
+        <v>496</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -12939,10 +13018,10 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>603</v>
+        <v>493</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>90</v>
@@ -12954,31 +13033,31 @@
         <v>102</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>82</v>
+        <v>499</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>133</v>
+        <v>500</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>604</v>
+        <v>501</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>82</v>
+        <v>502</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>82</v>
+        <v>503</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>605</v>
+        <v>504</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>605</v>
+        <v>504</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>82</v>
+        <v>505</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12997,15 +13076,17 @@
         <v>91</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>606</v>
+        <v>506</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13030,13 +13111,13 @@
         <v>82</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>82</v>
+        <v>349</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>82</v>
+        <v>509</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>82</v>
+        <v>510</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -13054,7 +13135,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>605</v>
+        <v>504</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13069,59 +13150,59 @@
         <v>102</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>82</v>
+        <v>511</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>390</v>
+        <v>512</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>608</v>
+        <v>513</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>82</v>
+        <v>514</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
-        <v>609</v>
+        <v>515</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>609</v>
+        <v>515</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>82</v>
+        <v>516</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>610</v>
+        <v>495</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>611</v>
+        <v>517</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>612</v>
+        <v>518</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>613</v>
+        <v>519</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13171,7 +13252,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>609</v>
+        <v>515</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13186,33 +13267,2952 @@
         <v>102</v>
       </c>
       <c r="AK93" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="P100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="O103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AC103" s="2"/>
+      <c r="AD103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="D104" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="D105" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="D106" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="D107" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="D108" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="O109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="P110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y110" s="2"/>
+      <c r="Z110" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO111" t="s" s="2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q112" s="2"/>
+      <c r="R112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO112" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O113" s="2"/>
+      <c r="P113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO113" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="AL93" t="s" s="2">
+      <c r="M114" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="O114" s="2"/>
+      <c r="P114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL114" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AM93" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO93" t="s" s="2">
+      <c r="AM114" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO114" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="115" hidden="true">
+      <c r="A115" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO115" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO116" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="117" hidden="true">
+      <c r="A117" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO117" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="118" hidden="true">
+      <c r="A118" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="O118" s="2"/>
+      <c r="P118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO118" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO93">
-    <filterColumn colId="6">
+  <autoFilter ref="A1:AO118">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI92">
+  <conditionalFormatting sqref="A2:AI117">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
